--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3742337.309798355</v>
+        <v>-3743077.772619078</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17463272.9656839</v>
+        <v>17463272.96568391</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>222.9664405879702</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>250.213769039549</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>275.1594447089986</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>202.6210018711094</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.81464457984677</v>
+        <v>62.09450183820194</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247056</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.5213376233408</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715475</v>
+        <v>34.81658261715458</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560315</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192599</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268818</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067112</v>
       </c>
       <c r="G12" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622692</v>
       </c>
       <c r="T12" t="n">
-        <v>103.1599108364461</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>94.2071238447502</v>
+        <v>94.20712384475003</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>101.0839861167125</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>226.0676559839946</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076489</v>
+        <v>74.05638417076472</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459177</v>
+        <v>73.9660947445916</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922454</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591507</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549977</v>
+        <v>16.8988719854996</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385641</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021849</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028115</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304841</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755892981</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437367</v>
+        <v>35.4595793843735</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529477</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494619</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200255</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911152</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038782</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632439</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938203</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>52.3662866569075</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874612</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>26.05925389085796</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>238.0144996457564</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140.9058564729404</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560315</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192616</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268835</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067129</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622709</v>
+        <v>34.98135294622706</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0829306929842</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475017</v>
       </c>
       <c r="V15" t="n">
         <v>101.0839861167127</v>
@@ -1749,10 +1749,10 @@
         <v>119.978382128207</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076489</v>
+        <v>190.0059950270557</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459177</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549977</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437367</v>
+        <v>35.45957938437364</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529492</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
@@ -1859,7 +1859,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>70.49238212118182</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
         <v>109.6433667609296</v>
@@ -1971,7 +1971,7 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>70.89642859186921</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.66119193167341</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.01183638550114</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>109.483583736764</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>80.15602968011626</v>
@@ -2208,25 +2208,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>166.2243014179971</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14.31549393480165</v>
+        <v>14.31549393480168</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>35.01183638550111</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350527</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
@@ -2333,7 +2333,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23.79712696322987</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.79712696322861</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>167.1761804170863</v>
+        <v>35.01183638550108</v>
       </c>
       <c r="S25" t="n">
-        <v>13.25670399134613</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W25" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C26" t="n">
         <v>215.2288314925555</v>
@@ -2561,10 +2561,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F26" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G26" t="n">
         <v>264.7570588588537</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300674</v>
+        <v>47.5453805230067</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U26" t="n">
         <v>101.2614631591581</v>
@@ -2621,7 +2621,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>79.03062158184412</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T27" t="n">
-        <v>49.0388704145322</v>
+        <v>49.03887041453217</v>
       </c>
       <c r="U27" t="n">
-        <v>159.885134065923</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017583</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863422</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955552</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U28" t="n">
         <v>136.2626958742862</v>
@@ -2776,10 +2776,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,19 +2798,19 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632593</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588537</v>
+        <v>264.7570588588536</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253702</v>
+        <v>184.2935426253701</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068739</v>
+        <v>41.0931867806873</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300664</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673123</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591581</v>
+        <v>101.261463159158</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916829</v>
+        <v>177.7081981916828</v>
       </c>
       <c r="W29" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389609</v>
       </c>
       <c r="X29" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000169</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2880,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>79.03062158184434</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048767</v>
+        <v>16.65389370048759</v>
       </c>
       <c r="T30" t="n">
-        <v>49.0388704145322</v>
+        <v>49.03887041453211</v>
       </c>
       <c r="U30" t="n">
-        <v>159.885134065923</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348529</v>
+        <v>29.7879199034852</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017583</v>
+        <v>17.20276082017574</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454181</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863416</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955552</v>
+        <v>70.05124915955544</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920686</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453759</v>
       </c>
       <c r="W31" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581389</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058506</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364278</v>
+        <v>68.5405930736427</v>
       </c>
     </row>
     <row r="32">
@@ -3266,22 +3266,22 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C35" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D35" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
         <v>144.5508808461438</v>
       </c>
       <c r="F35" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G35" t="n">
         <v>177.4216299111877</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770418</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149212</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401689</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W35" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X35" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
         <v>148.8584494299356</v>
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>23.79712696322996</v>
+        <v>181.4422074186305</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>35.66119193167339</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>84.58845885829386</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409770999</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047299</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.79712696322973</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>168.8663393566137</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.81741139021997</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662033</v>
+        <v>229.3601513350527</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771008</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482974</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570786</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265282</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221225</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886389</v>
+        <v>113.437587788639</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242694</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549517</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022298</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632858</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408704</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>194.5232143484971</v>
+        <v>161.4587281333359</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475738</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755505</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864479</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140779</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853944</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.1006484492991</v>
+        <v>120.1006484492985</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242682</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>61.2155701580252</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>189.4092151600443</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>5.02370976227946</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>120.1006484492991</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>65.62298322140768</v>
       </c>
       <c r="X46" t="n">
-        <v>124.9102887231529</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1226.915671665775</v>
+        <v>991.0002264755776</v>
       </c>
       <c r="C11" t="n">
-        <v>991.0002264755783</v>
+        <v>991.0002264755776</v>
       </c>
       <c r="D11" t="n">
-        <v>765.7815996190426</v>
+        <v>765.7815996190423</v>
       </c>
       <c r="E11" t="n">
-        <v>513.0404187710132</v>
+        <v>513.0404187710129</v>
       </c>
       <c r="F11" t="n">
-        <v>235.1015857316205</v>
+        <v>235.1015857316203</v>
       </c>
       <c r="G11" t="n">
-        <v>235.1015857316205</v>
+        <v>235.1015857316203</v>
       </c>
       <c r="H11" t="n">
         <v>30.43390707393399</v>
@@ -5039,13 +5039,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M11" t="n">
         <v>789.5552979241022</v>
@@ -5060,31 +5060,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1480.468439979682</v>
+        <v>1458.973634668213</v>
       </c>
       <c r="T11" t="n">
-        <v>1480.468439979682</v>
+        <v>1368.889378019253</v>
       </c>
       <c r="U11" t="n">
-        <v>1480.468439979682</v>
+        <v>1248.092486701174</v>
       </c>
       <c r="V11" t="n">
-        <v>1480.468439979682</v>
+        <v>1248.092486701174</v>
       </c>
       <c r="W11" t="n">
-        <v>1480.468439979682</v>
+        <v>1248.092486701174</v>
       </c>
       <c r="X11" t="n">
-        <v>1480.468439979682</v>
+        <v>1248.092486701174</v>
       </c>
       <c r="Y11" t="n">
-        <v>1480.468439979682</v>
+        <v>991.0002264755776</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>745.9716987092579</v>
+        <v>590.6284307249184</v>
       </c>
       <c r="C12" t="n">
-        <v>704.5657411783457</v>
+        <v>416.1754014437914</v>
       </c>
       <c r="D12" t="n">
-        <v>555.6313315170944</v>
+        <v>400.2880635327551</v>
       </c>
       <c r="E12" t="n">
-        <v>396.3938765116388</v>
+        <v>374.0976802775145</v>
       </c>
       <c r="F12" t="n">
-        <v>249.8593185385238</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G12" t="n">
-        <v>111.399593619506</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H12" t="n">
         <v>111.399593619506</v>
@@ -5118,52 +5118,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>54.79813383722129</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K12" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>223.0613211674321</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M12" t="n">
-        <v>599.6809212073651</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211011</v>
+        <v>976.342225401374</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1353.313582000801</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T12" t="n">
-        <v>1249.111651862976</v>
+        <v>1200.92926656125</v>
       </c>
       <c r="U12" t="n">
-        <v>1153.952940908683</v>
+        <v>1105.770555606957</v>
       </c>
       <c r="V12" t="n">
-        <v>1051.847904427155</v>
+        <v>1003.665519125429</v>
       </c>
       <c r="W12" t="n">
-        <v>930.6576194491684</v>
+        <v>775.3143514648284</v>
       </c>
       <c r="X12" t="n">
-        <v>855.8531909938503</v>
+        <v>700.5099230095105</v>
       </c>
       <c r="Y12" t="n">
-        <v>781.1399639791111</v>
+        <v>625.7966959947715</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858028</v>
+        <v>194.4516414858016</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081096</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459888</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138106</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661152</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946755</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184305</v>
+        <v>47.57254097184289</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220475</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>164.6670499418628</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383614</v>
+        <v>355.498745710091</v>
       </c>
       <c r="M13" t="n">
-        <v>598.8167744819574</v>
+        <v>560.0046495552828</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341124</v>
+        <v>768.1830836298233</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624647</v>
+        <v>862.8204075624616</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206711</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.21927357122</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617308</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856967</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877713</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493617</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936897</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069441</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591416</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658264</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>744.3091599686959</v>
+        <v>614.0091600087376</v>
       </c>
       <c r="C14" t="n">
-        <v>508.3937147784991</v>
+        <v>561.1139209613564</v>
       </c>
       <c r="D14" t="n">
-        <v>283.1750879219635</v>
+        <v>561.1139209613564</v>
       </c>
       <c r="E14" t="n">
-        <v>30.43390707393399</v>
+        <v>308.3727401133268</v>
       </c>
       <c r="F14" t="n">
         <v>30.43390707393399</v>
@@ -5276,7 +5276,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326556</v>
@@ -5300,28 +5300,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S14" t="n">
-        <v>1521.695353696699</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1521.695353696699</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1521.695353696699</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="V14" t="n">
-        <v>1521.695353696699</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="W14" t="n">
-        <v>1495.372875019065</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="X14" t="n">
-        <v>1254.9541885082</v>
+        <v>1124.654188548242</v>
       </c>
       <c r="Y14" t="n">
-        <v>997.861928282603</v>
+        <v>867.5619283226446</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>457.5813589747042</v>
+        <v>531.9589404134712</v>
       </c>
       <c r="C15" t="n">
-        <v>416.1754014437919</v>
+        <v>357.5059111323441</v>
       </c>
       <c r="D15" t="n">
-        <v>400.2880635327554</v>
+        <v>208.5715014710929</v>
       </c>
       <c r="E15" t="n">
-        <v>374.0976802775147</v>
+        <v>49.33404646563736</v>
       </c>
       <c r="F15" t="n">
-        <v>360.6101940546143</v>
+        <v>35.8465602427371</v>
       </c>
       <c r="G15" t="n">
-        <v>222.1504691355964</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K15" t="n">
-        <v>168.8296018649921</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4846184843216</v>
+        <v>431.7629153737464</v>
       </c>
       <c r="M15" t="n">
-        <v>833.1042185242547</v>
+        <v>808.3825154136796</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.723818564188</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.695353696699</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.023135948102</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T15" t="n">
-        <v>1200.929266561249</v>
+        <v>1418.313856114378</v>
       </c>
       <c r="U15" t="n">
-        <v>972.7234838567414</v>
+        <v>1323.155145160084</v>
       </c>
       <c r="V15" t="n">
-        <v>870.6184473752135</v>
+        <v>1221.050108678556</v>
       </c>
       <c r="W15" t="n">
-        <v>749.4281623972265</v>
+        <v>1099.859823700569</v>
       </c>
       <c r="X15" t="n">
-        <v>674.6237339419084</v>
+        <v>907.934576198493</v>
       </c>
       <c r="Y15" t="n">
-        <v>599.9105069271693</v>
+        <v>700.1742774335391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858028</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946784</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184305</v>
+        <v>47.57254097184304</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>30.43390707393399</v>
+        <v>84.15679020220477</v>
       </c>
       <c r="K16" t="n">
-        <v>73.07973984615236</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L16" t="n">
-        <v>263.9114356143804</v>
+        <v>394.3108706367655</v>
       </c>
       <c r="M16" t="n">
-        <v>468.417339459572</v>
+        <v>468.4173394595715</v>
       </c>
       <c r="N16" t="n">
-        <v>676.5957735341124</v>
+        <v>676.5957735341119</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624647</v>
+        <v>862.8204075624643</v>
       </c>
       <c r="P16" t="n">
         <v>1017.467262206714</v>
@@ -5461,25 +5461,25 @@
         <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
         <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372716</v>
@@ -5513,16 +5513,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550286</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5534,16 +5534,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>599.1269084991991</v>
+        <v>989.7696459755631</v>
       </c>
       <c r="C18" t="n">
-        <v>599.1269084991991</v>
+        <v>815.3166166944361</v>
       </c>
       <c r="D18" t="n">
-        <v>599.1269084991991</v>
+        <v>666.3822070331848</v>
       </c>
       <c r="E18" t="n">
-        <v>439.8894534937436</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F18" t="n">
-        <v>293.3548955206286</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1504691355964</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H18" t="n">
         <v>111.399593619506</v>
@@ -5592,52 +5592,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L18" t="n">
-        <v>510.7163377867616</v>
+        <v>431.7629153737464</v>
       </c>
       <c r="M18" t="n">
-        <v>887.3359378266948</v>
+        <v>808.3825154136796</v>
       </c>
       <c r="N18" t="n">
-        <v>1263.955537866628</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O18" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P18" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
         <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U18" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="V18" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="W18" t="n">
-        <v>1014.738707469686</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="X18" t="n">
-        <v>806.8872072641529</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="Y18" t="n">
-        <v>599.1269084991991</v>
+        <v>1157.984982995631</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="C19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="D19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="E19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="F19" t="n">
-        <v>30.43390707393399</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="G19" t="n">
-        <v>30.43390707393399</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="H19" t="n">
-        <v>30.43390707393399</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="I19" t="n">
-        <v>30.43390707393399</v>
+        <v>108.6673035580833</v>
       </c>
       <c r="J19" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M19" t="n">
-        <v>168.8063444881258</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402807</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462476</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681116</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681116</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="S19" t="n">
-        <v>291.2924708696256</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="T19" t="n">
-        <v>291.2924708696256</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="U19" t="n">
-        <v>241.8709891255646</v>
+        <v>209.2358441033929</v>
       </c>
       <c r="V19" t="n">
-        <v>226.9637627642414</v>
+        <v>194.3286177420696</v>
       </c>
       <c r="W19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="X19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.3238545718444</v>
+        <v>144.6887095496726</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810896</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E20" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
@@ -5750,7 +5750,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326556</v>
@@ -5768,25 +5768,25 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
         <v>1303.351633548412</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.1485240624386</v>
+        <v>879.0187704594726</v>
       </c>
       <c r="C21" t="n">
-        <v>676.6954947813116</v>
+        <v>704.5657411783457</v>
       </c>
       <c r="D21" t="n">
-        <v>527.7610851200603</v>
+        <v>555.6313315170944</v>
       </c>
       <c r="E21" t="n">
-        <v>368.5236301146048</v>
+        <v>396.3938765116388</v>
       </c>
       <c r="F21" t="n">
-        <v>221.9890721414898</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="G21" t="n">
-        <v>221.9890721414898</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H21" t="n">
         <v>111.399593619506</v>
@@ -5832,49 +5832,49 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K21" t="n">
-        <v>54.79813383722129</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>342.4531504565508</v>
+        <v>431.7629153737464</v>
       </c>
       <c r="M21" t="n">
-        <v>599.7226253614406</v>
+        <v>808.3825154136796</v>
       </c>
       <c r="N21" t="n">
-        <v>976.3422254013738</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O21" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P21" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
         <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U21" t="n">
-        <v>1268.976064197887</v>
+        <v>1269.454501128133</v>
       </c>
       <c r="V21" t="n">
-        <v>1033.823955966145</v>
+        <v>1269.454501128133</v>
       </c>
       <c r="W21" t="n">
-        <v>1019.363861082507</v>
+        <v>1254.994406244494</v>
       </c>
       <c r="X21" t="n">
-        <v>1019.363861082507</v>
+        <v>1254.994406244494</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.363861082507</v>
+        <v>1047.234107479541</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393399</v>
+        <v>65.79939837241997</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393399</v>
+        <v>65.79939837241997</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393399</v>
+        <v>65.79939837241997</v>
       </c>
       <c r="I22" t="n">
-        <v>30.43390707393399</v>
+        <v>65.79939837241997</v>
       </c>
       <c r="J22" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M22" t="n">
-        <v>168.8063444881258</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402807</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462476</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P22" t="n">
         <v>326.6579621681116</v>
@@ -5941,19 +5941,19 @@
         <v>326.6579621681116</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765429</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633101</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810891</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C23" t="n">
-        <v>743.293233685241</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230541</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693735</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243296</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393447</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020951</v>
+        <v>60.75260108021001</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326561</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550287</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,34 +6005,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>659.5933589948828</v>
+        <v>683.6308609779433</v>
       </c>
       <c r="C24" t="n">
-        <v>485.1403297137558</v>
+        <v>509.1778316968163</v>
       </c>
       <c r="D24" t="n">
-        <v>336.2059200525045</v>
+        <v>360.243422035565</v>
       </c>
       <c r="E24" t="n">
-        <v>176.968465047049</v>
+        <v>201.0059670301095</v>
       </c>
       <c r="F24" t="n">
-        <v>30.43390707393397</v>
+        <v>54.47140905699447</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722126</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K24" t="n">
         <v>223.0613211674321</v>
@@ -6075,43 +6075,43 @@
         <v>510.7163377867616</v>
       </c>
       <c r="M24" t="n">
-        <v>510.7163377867616</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803210999</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O24" t="n">
-        <v>1185.002115453611</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616426</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S24" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T24" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U24" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V24" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="W24" t="n">
-        <v>1243.420494985437</v>
+        <v>1267.457996968498</v>
       </c>
       <c r="X24" t="n">
-        <v>1035.568994779905</v>
+        <v>1059.606496762965</v>
       </c>
       <c r="Y24" t="n">
-        <v>827.8086960149508</v>
+        <v>851.8461979980113</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393397</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947715</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531975</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M25" t="n">
-        <v>168.8063444881258</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402807</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462476</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
         <v>326.6579621681116</v>
@@ -6169,28 +6169,28 @@
         <v>326.6579621681116</v>
       </c>
       <c r="R25" t="n">
-        <v>157.793133463984</v>
+        <v>291.2924708696257</v>
       </c>
       <c r="S25" t="n">
-        <v>144.4025233717152</v>
+        <v>291.2924708696257</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4025233717152</v>
+        <v>291.2924708696257</v>
       </c>
       <c r="U25" t="n">
-        <v>94.98104162765428</v>
+        <v>241.8709891255647</v>
       </c>
       <c r="V25" t="n">
-        <v>80.073815266331</v>
+        <v>226.9637627642414</v>
       </c>
       <c r="W25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="X25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.43390707393397</v>
+        <v>177.3238545718444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607513</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028707</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601844</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754837</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471603</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606063</v>
@@ -6245,16 +6245,16 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U26" t="n">
         <v>2544.422757287606</v>
@@ -6263,13 +6263,13 @@
         <v>2364.919526790956</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>617.7798920756284</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>443.3268627945014</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176337</v>
+        <v>294.3924531332501</v>
       </c>
       <c r="E27" t="n">
-        <v>201.8606454121782</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235045</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
-        <v>247.9535015325612</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L27" t="n">
         <v>535.6085181518908</v>
@@ -6336,19 +6336,19 @@
         <v>1919.202275730635</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.702140310511</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.550032078768</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.312675350567</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.461175145034</v>
+        <v>993.7555278606503</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209085</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992282</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992282</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992277</v>
       </c>
       <c r="G28" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998149</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906316</v>
+        <v>56.67269700900454</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1931552206159</v>
+        <v>56.67269700900454</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6695510182102</v>
+        <v>209.0500245302152</v>
       </c>
       <c r="L28" t="n">
-        <v>210.1018117640528</v>
+        <v>349.0803512635529</v>
       </c>
       <c r="M28" t="n">
-        <v>284.2082805868589</v>
+        <v>423.186820086359</v>
       </c>
       <c r="N28" t="n">
-        <v>510.5308993146813</v>
+        <v>500.9658191385139</v>
       </c>
       <c r="O28" t="n">
-        <v>566.3560983206481</v>
+        <v>556.7910181444807</v>
       </c>
       <c r="P28" t="n">
-        <v>739.1471376181796</v>
+        <v>729.5820574420122</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359704</v>
+        <v>811.478253459803</v>
       </c>
       <c r="R28" t="n">
-        <v>803.738161778764</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438594</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426403</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U28" t="n">
-        <v>517.622936300937</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419714</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W28" t="n">
-        <v>276.640591751932</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X28" t="n">
-        <v>200.2106977008359</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.977775404227</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028716</v>
+        <v>809.8470710028722</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601853</v>
+        <v>550.420823060186</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754846</v>
+        <v>282.9894504754853</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450499</v>
+        <v>96.83435691450541</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
         <v>955.9037100471601</v>
@@ -6473,16 +6473,16 @@
         <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606062</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831067</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.485539360012</v>
+        <v>617.7798920756286</v>
       </c>
       <c r="C30" t="n">
-        <v>510.032510078885</v>
+        <v>443.3268627945016</v>
       </c>
       <c r="D30" t="n">
-        <v>361.0981004176337</v>
+        <v>294.3924531332503</v>
       </c>
       <c r="E30" t="n">
-        <v>201.8606454121782</v>
+        <v>135.1549981277948</v>
       </c>
       <c r="F30" t="n">
         <v>55.32608743906317</v>
@@ -6573,19 +6573,19 @@
         <v>1919.202275730635</v>
       </c>
       <c r="U30" t="n">
-        <v>1757.702140310511</v>
+        <v>1690.996493026128</v>
       </c>
       <c r="V30" t="n">
-        <v>1522.550032078768</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W30" t="n">
-        <v>1268.312675350567</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X30" t="n">
-        <v>1060.461175145034</v>
+        <v>993.7555278606505</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.70087638008</v>
+        <v>785.9952290956967</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209085</v>
+        <v>94.89788390030527</v>
       </c>
       <c r="C31" t="n">
-        <v>83.51244133992283</v>
+        <v>77.52135781931968</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51244133992283</v>
+        <v>78.93565920695701</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992283</v>
+        <v>78.93565920695701</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992265</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998152</v>
+        <v>65.61152179998142</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
@@ -6622,49 +6622,49 @@
         <v>55.32608743906317</v>
       </c>
       <c r="K31" t="n">
-        <v>149.6695510182102</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L31" t="n">
-        <v>210.1018117640528</v>
+        <v>119.5920560304489</v>
       </c>
       <c r="M31" t="n">
-        <v>284.2082805868589</v>
+        <v>278.2171970662544</v>
       </c>
       <c r="N31" t="n">
-        <v>510.5308993146813</v>
+        <v>355.9961961184093</v>
       </c>
       <c r="O31" t="n">
-        <v>566.3560983206481</v>
+        <v>560.3650148000438</v>
       </c>
       <c r="P31" t="n">
-        <v>739.1471376181796</v>
+        <v>733.1560540975754</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359704</v>
+        <v>815.0522501153663</v>
       </c>
       <c r="R31" t="n">
-        <v>803.738161778764</v>
+        <v>797.7470782581601</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438594</v>
+        <v>726.9882407232556</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426403</v>
+        <v>649.2709395220365</v>
       </c>
       <c r="U31" t="n">
-        <v>517.622936300937</v>
+        <v>511.6318527803334</v>
       </c>
       <c r="V31" t="n">
-        <v>414.4981049419714</v>
+        <v>408.5070214213678</v>
       </c>
       <c r="W31" t="n">
-        <v>276.640591751932</v>
+        <v>270.6495082313285</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2106977008359</v>
+        <v>194.2196141802324</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.977775404227</v>
+        <v>124.9866918836237</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028712</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F32" t="n">
         <v>550.4208230601855</v>
@@ -6707,7 +6707,7 @@
         <v>955.9037100471596</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
         <v>1851.630069864826</v>
@@ -6725,7 +6725,7 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
         <v>2646.707063508979</v>
@@ -6734,10 +6734,10 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X32" t="n">
         <v>1941.804426953606</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.90066937770767</v>
+        <v>91.3238872447422</v>
       </c>
       <c r="C34" t="n">
-        <v>78.5241432967219</v>
+        <v>73.94736116375643</v>
       </c>
       <c r="D34" t="n">
-        <v>79.93844468435907</v>
+        <v>75.36166255139359</v>
       </c>
       <c r="E34" t="n">
-        <v>83.512441339923</v>
+        <v>78.93565920695752</v>
       </c>
       <c r="F34" t="n">
         <v>83.512441339923</v>
@@ -6859,49 +6859,49 @@
         <v>128.5397647905571</v>
       </c>
       <c r="K34" t="n">
-        <v>132.3734726361003</v>
+        <v>280.9170923117676</v>
       </c>
       <c r="L34" t="n">
-        <v>341.3493530576103</v>
+        <v>489.8929727332776</v>
       </c>
       <c r="M34" t="n">
-        <v>563.9994415560838</v>
+        <v>653.6266357798189</v>
       </c>
       <c r="N34" t="n">
-        <v>641.7784406082387</v>
+        <v>731.4056348319739</v>
       </c>
       <c r="O34" t="n">
-        <v>697.6036396142056</v>
+        <v>787.2308338379407</v>
       </c>
       <c r="P34" t="n">
-        <v>816.0550355927702</v>
+        <v>811.4782534598047</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.0550355927702</v>
+        <v>811.4782534598047</v>
       </c>
       <c r="R34" t="n">
-        <v>798.7498637355638</v>
+        <v>794.1730816025984</v>
       </c>
       <c r="S34" t="n">
-        <v>727.9910262006592</v>
+        <v>723.4142440676937</v>
       </c>
       <c r="T34" t="n">
-        <v>650.27372499944</v>
+        <v>645.6969428664745</v>
       </c>
       <c r="U34" t="n">
-        <v>512.6346382577366</v>
+        <v>508.0578561247711</v>
       </c>
       <c r="V34" t="n">
-        <v>409.5098068987709</v>
+        <v>404.9330247658054</v>
       </c>
       <c r="W34" t="n">
-        <v>271.6522937087314</v>
+        <v>267.0755115757659</v>
       </c>
       <c r="X34" t="n">
-        <v>195.2223996576352</v>
+        <v>190.6456175246697</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.9894773610262</v>
+        <v>121.4126952280608</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810896</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852425</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230556</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693751</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243312</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6953,19 +6953,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U35" t="n">
         <v>1507.62865247297</v>
@@ -6974,13 +6974,13 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>659.5933589948828</v>
+        <v>500.3559039894272</v>
       </c>
       <c r="C36" t="n">
-        <v>485.1403297137558</v>
+        <v>325.9028747083003</v>
       </c>
       <c r="D36" t="n">
-        <v>336.2059200525046</v>
+        <v>176.968465047049</v>
       </c>
       <c r="E36" t="n">
         <v>176.968465047049</v>
       </c>
       <c r="F36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L36" t="n">
         <v>318.0889236932636</v>
@@ -7032,34 +7032,34 @@
         <v>1383.299658905641</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="V36" t="n">
-        <v>1497.657851713639</v>
+        <v>1338.420396708183</v>
       </c>
       <c r="W36" t="n">
-        <v>1243.420494985437</v>
+        <v>1084.183039979982</v>
       </c>
       <c r="X36" t="n">
-        <v>1035.568994779905</v>
+        <v>876.3315397744491</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.8086960149508</v>
+        <v>668.5712410094952</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.6673035580833</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="C37" t="n">
-        <v>108.6673035580833</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="D37" t="n">
-        <v>108.6673035580833</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="E37" t="n">
         <v>108.6673035580833</v>
@@ -7093,22 +7093,22 @@
         <v>108.6673035580833</v>
       </c>
       <c r="J37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M37" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P37" t="n">
         <v>326.6579621681116</v>
@@ -7126,19 +7126,19 @@
         <v>258.6573258474538</v>
       </c>
       <c r="U37" t="n">
-        <v>173.2144381118034</v>
+        <v>209.2358441033929</v>
       </c>
       <c r="V37" t="n">
-        <v>158.3072117504802</v>
+        <v>194.3286177420696</v>
       </c>
       <c r="W37" t="n">
-        <v>108.6673035580833</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="X37" t="n">
-        <v>108.6673035580833</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.6673035580833</v>
+        <v>144.6887095496726</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810897</v>
+        <v>872.478488781089</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852409</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230548</v>
+        <v>624.804796923054</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693735</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372716</v>
@@ -7172,16 +7172,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7190,34 +7190,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472969</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W38" t="n">
         <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131895</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>513.0588010217677</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C39" t="n">
-        <v>338.6057717406408</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D39" t="n">
-        <v>189.6713620793895</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E39" t="n">
-        <v>30.43390707393399</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F39" t="n">
         <v>30.43390707393399</v>
@@ -7251,52 +7251,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K39" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331967</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="N39" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.299658905641</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="U39" t="n">
-        <v>1521.6953536967</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="V39" t="n">
-        <v>1351.123293740524</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="W39" t="n">
-        <v>1096.885937012323</v>
+        <v>1243.420494985437</v>
       </c>
       <c r="X39" t="n">
-        <v>889.0344368067897</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y39" t="n">
-        <v>681.2741380418358</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C40" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D40" t="n">
         <v>30.43390707393399</v>
@@ -7333,49 +7333,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M40" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P40" t="n">
         <v>326.6579621681116</v>
       </c>
       <c r="Q40" t="n">
-        <v>294.519162784051</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R40" t="n">
-        <v>294.519162784051</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S40" t="n">
-        <v>294.519162784051</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T40" t="n">
-        <v>294.519162784051</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U40" t="n">
-        <v>245.0976810399901</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V40" t="n">
-        <v>230.1904546786668</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W40" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829031</v>
+        <v>976.4306445829027</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416664</v>
+        <v>830.5994560416659</v>
       </c>
       <c r="D41" t="n">
-        <v>695.465085834091</v>
+        <v>695.4650858340906</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350215</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445897</v>
+        <v>344.953585244589</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890036</v>
+        <v>63.97560257890026</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517591</v>
+        <v>264.5803575543548</v>
       </c>
       <c r="K41" t="n">
-        <v>260.478963837622</v>
+        <v>430.7650248068009</v>
       </c>
       <c r="L41" t="n">
-        <v>518.9223661599947</v>
+        <v>689.2084271291735</v>
       </c>
       <c r="M41" t="n">
-        <v>823.0969934290686</v>
+        <v>993.3830543982474</v>
       </c>
       <c r="N41" t="n">
-        <v>1117.561486626325</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O41" t="n">
-        <v>1350.428319691895</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P41" t="n">
-        <v>1511.500391241233</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T41" t="n">
         <v>1725.523110170844</v>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>663.6699141243657</v>
+        <v>489.2168848432387</v>
       </c>
       <c r="C42" t="n">
         <v>489.2168848432387</v>
@@ -7491,49 +7491,49 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K42" t="n">
-        <v>91.22965366413388</v>
+        <v>91.22965366413433</v>
       </c>
       <c r="L42" t="n">
-        <v>378.8846702834634</v>
+        <v>378.8846702834639</v>
       </c>
       <c r="M42" t="n">
-        <v>766.5437285079261</v>
+        <v>766.5437285079265</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.169981875518</v>
+        <v>1180.169981875519</v>
       </c>
       <c r="O42" t="n">
         <v>1492.14151700803</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U42" t="n">
-        <v>1529.035014869332</v>
+        <v>1562.433485793738</v>
       </c>
       <c r="V42" t="n">
-        <v>1293.882906637589</v>
+        <v>1327.281377561995</v>
       </c>
       <c r="W42" t="n">
-        <v>1039.645549909388</v>
+        <v>1073.044020833793</v>
       </c>
       <c r="X42" t="n">
-        <v>1039.645549909388</v>
+        <v>865.1925206282606</v>
       </c>
       <c r="Y42" t="n">
-        <v>831.8852511444338</v>
+        <v>657.4322218633067</v>
       </c>
     </row>
     <row r="43">
@@ -7573,7 +7573,7 @@
         <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
@@ -7597,19 +7597,19 @@
         <v>330.7345172975945</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486292</v>
+        <v>324.5888876486291</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591798</v>
+        <v>258.5214724591796</v>
       </c>
       <c r="V43" t="n">
-        <v>226.968312652468</v>
+        <v>226.9683126524677</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146824</v>
+        <v>160.682471014682</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158402</v>
+        <v>155.8242485158396</v>
       </c>
       <c r="Y43" t="n">
         <v>34.51046220341689</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829037</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416671</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340917</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350227</v>
+        <v>532.8081616350231</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445902</v>
+        <v>344.9535852445907</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
@@ -7643,19 +7643,19 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890036</v>
+        <v>63.97560257890038</v>
       </c>
       <c r="J44" t="n">
         <v>94.29429658517591</v>
       </c>
       <c r="K44" t="n">
-        <v>260.478963837622</v>
+        <v>306.1722804618599</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842321</v>
+        <v>564.6156827842326</v>
       </c>
       <c r="M44" t="n">
-        <v>868.790310053306</v>
+        <v>868.7903100533065</v>
       </c>
       <c r="N44" t="n">
         <v>1163.254803250563</v>
@@ -7664,7 +7664,7 @@
         <v>1396.121636316133</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1557.193707865471</v>
       </c>
       <c r="Q44" t="n">
         <v>1600.930365825903</v>
@@ -7673,13 +7673,13 @@
         <v>1702.445641600257</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
@@ -7688,10 +7688,10 @@
         <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.6699141243657</v>
+        <v>647.2320549150127</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432387</v>
+        <v>472.7790256338857</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2824751819874</v>
+        <v>323.8446159726344</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0450201765319</v>
+        <v>323.8446159726344</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51046220341689</v>
+        <v>177.3100579995194</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341689</v>
+        <v>177.3100579995194</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
@@ -7728,49 +7728,49 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>91.22965366413388</v>
+        <v>91.22965366413433</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834634</v>
+        <v>378.8846702834639</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079261</v>
+        <v>766.5437285079265</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.169981875518</v>
+        <v>1180.169981875519</v>
       </c>
       <c r="O45" t="n">
         <v>1492.14151700803</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T45" t="n">
-        <v>1534.200670615244</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U45" t="n">
-        <v>1529.126216309911</v>
+        <v>1720.448655865512</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.974108078168</v>
+        <v>1485.296547633769</v>
       </c>
       <c r="W45" t="n">
-        <v>1039.736751349967</v>
+        <v>1231.059190905567</v>
       </c>
       <c r="X45" t="n">
-        <v>831.8852511444338</v>
+        <v>1023.207690700035</v>
       </c>
       <c r="Y45" t="n">
-        <v>831.8852511444338</v>
+        <v>815.4473919350808</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158402</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158402</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158402</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158402</v>
       </c>
       <c r="F46" t="n">
         <v>34.51046220341689</v>
@@ -7810,7 +7810,7 @@
         <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
@@ -7846,10 +7846,10 @@
         <v>160.6824710146824</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158402</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158402</v>
       </c>
     </row>
   </sheetData>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>80.27972245565155</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>337.6488447942035</v>
+        <v>151.4434189971764</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.296052629596</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>291.0894135731407</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368269</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661686</v>
       </c>
       <c r="P15" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>315.6997436370673</v>
       </c>
       <c r="M18" t="n">
         <v>454.5540958868388</v>
@@ -9255,13 +9255,13 @@
         <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
-        <v>103.3438218370787</v>
+        <v>78.73955651661686</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,10 +9413,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627453</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>291.0894135731407</v>
       </c>
       <c r="M21" t="n">
-        <v>333.9984139322495</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661686</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599036</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>74.13025746266391</v>
+        <v>440.1042398205827</v>
       </c>
       <c r="N24" t="n">
-        <v>427.5120603705695</v>
+        <v>61.53807801265202</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>222.5174167492746</v>
+        <v>222.5174167492742</v>
       </c>
       <c r="Q36" t="n">
         <v>105.7220906850686</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868388</v>
+        <v>440.1042398205825</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265202</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>222.5174167492746</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K42" t="n">
-        <v>151.7945341141</v>
+        <v>151.7945341141004</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11376,7 +11376,7 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>151.7945341141</v>
+        <v>151.7945341141004</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.0172406307678</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382948</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>283.0845181045929</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642682</v>
+        <v>59.42064602642664</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.0581951888995</v>
+        <v>3.778337930544044</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247073</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374221</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457563</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>181.1900040813874</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>283.0845181045931</v>
@@ -23513,7 +23513,7 @@
         <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642682</v>
+        <v>59.42064602642678</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874616</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247073</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>119.5889224048975</v>
@@ -23555,7 +23555,7 @@
         <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>191.4651137938424</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1348976.408993734</v>
+        <v>1348976.408993735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1348976.408993735</v>
+        <v>1348976.408993734</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>20481.90846792595</v>
       </c>
       <c r="C2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="D2" t="n">
         <v>20481.90846792596</v>
@@ -26326,10 +26326,10 @@
         <v>17576.00544579206</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="H2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660709</v>
@@ -26344,13 +26344,13 @@
         <v>20526.04424660706</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189902</v>
+        <v>319206.1449189904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472429</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612106</v>
+        <v>116916.0581612107</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472411</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239531</v>
+        <v>87131.09894239524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510447</v>
+        <v>34584.19673510458</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>302289.1079395697</v>
+        <v>302289.1079395699</v>
       </c>
       <c r="F4" t="n">
         <v>302289.1079395697</v>
@@ -26436,13 +26436,13 @@
         <v>369405.3002414156</v>
       </c>
       <c r="I4" t="n">
-        <v>369405.3002414155</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="J4" t="n">
         <v>367843.9154727357</v>
       </c>
       <c r="K4" t="n">
-        <v>367843.9154727357</v>
+        <v>367843.9154727358</v>
       </c>
       <c r="L4" t="n">
         <v>367843.9154727357</v>
@@ -26454,7 +26454,7 @@
         <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
-        <v>368260.9042823386</v>
+        <v>368260.9042823385</v>
       </c>
       <c r="P4" t="n">
         <v>368260.9042823386</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678312</v>
+        <v>36923.20336678314</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678312</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
         <v>45806.17671431452</v>
@@ -26488,19 +26488,19 @@
         <v>45806.17671431452</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.1767143145</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561137</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561135</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431452</v>
@@ -26509,7 +26509,7 @@
         <v>47518.94570368935</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="C6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="D6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="E6" t="n">
-        <v>-640842.4507795511</v>
+        <v>-641137.4546596328</v>
       </c>
       <c r="F6" t="n">
-        <v>-321636.3058605608</v>
+        <v>-321931.3097406423</v>
       </c>
       <c r="G6" t="n">
-        <v>-479215.7432638473</v>
+        <v>-479215.7432638472</v>
       </c>
       <c r="H6" t="n">
         <v>-394685.4327091229</v>
       </c>
       <c r="I6" t="n">
-        <v>-394685.4327091229</v>
+        <v>-394685.432709123</v>
       </c>
       <c r="J6" t="n">
-        <v>-521615.9610029505</v>
+        <v>-521615.9610029507</v>
       </c>
       <c r="K6" t="n">
         <v>-404699.9028417399</v>
       </c>
       <c r="L6" t="n">
-        <v>-489230.2133964642</v>
+        <v>-489230.2133964641</v>
       </c>
       <c r="M6" t="n">
-        <v>-481816.5316515184</v>
+        <v>-481816.5316515182</v>
       </c>
       <c r="N6" t="n">
-        <v>-394685.4327091229</v>
+        <v>-394685.432709123</v>
       </c>
       <c r="O6" t="n">
-        <v>-429838.0024745253</v>
+        <v>-429838.0024745254</v>
       </c>
       <c r="P6" t="n">
         <v>-395253.8057394208</v>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L2" t="n">
         <v>150.0440602784519</v>
@@ -26719,10 +26719,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="N2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="P2" t="n">
         <v>220.9000151151833</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882896</v>
@@ -26820,16 +26820,16 @@
         <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.38117208504687</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934051</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766609</v>
+        <v>87.33542894766603</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411204</v>
+        <v>27.90169797411212</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641149</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006016</v>
+        <v>69.2715838600601</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853613</v>
+        <v>50.9569391185363</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.38117208504687</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="T12" t="n">
-        <v>95.92301985653813</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>25.62732717692504</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327126</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="M13" t="n">
-        <v>116.655229111909</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="O13" t="n">
-        <v>131.7166010327126</v>
+        <v>39.2041665925974</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327128</v>
       </c>
     </row>
     <row r="14">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.62732717692694</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V15" t="n">
         <v>131.7166010327126</v>
@@ -28469,10 +28469,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>15.76699017642181</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,16 +28506,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>77.45106251930778</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K16" t="n">
-        <v>39.20416659260121</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119085</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>131.7166010327126</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>66.58274554864586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
@@ -28703,10 +28703,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>180.7985545690504</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28731,19 +28731,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
-        <v>160.2266402957612</v>
+        <v>124.5654483640878</v>
       </c>
       <c r="I19" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930778</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,25 +28764,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
-        <v>185.0834730525064</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="21">
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1597830241655913</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>59.69942345946566</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.7659706229939</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930778</v>
+        <v>42.43922613380667</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29013,13 +29013,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.9466048176856</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>113.2780007065978</v>
       </c>
       <c r="H24" t="n">
         <v>109.6433667609296</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.6970156616558</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.7659706229939</v>
@@ -29241,22 +29241,22 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>132.1643440315852</v>
       </c>
       <c r="S25" t="n">
-        <v>206.8386054466614</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29302,7 +29302,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="L26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784524</v>
       </c>
       <c r="M26" t="n">
         <v>150.044060278452</v>
@@ -29320,7 +29320,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S26" t="n">
         <v>150.044060278452</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>66.03859081153976</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
@@ -29408,7 +29408,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="U27" t="n">
-        <v>66.03859081153976</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,22 +29451,22 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K28" t="n">
-        <v>18.83099793136476</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>80.40208685605563</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="E29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="F29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="G29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="J29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="O29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="P29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="R29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="30">
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>66.03859081153954</v>
       </c>
       <c r="G30" t="n">
         <v>137.0751276698277</v>
@@ -29639,13 +29639,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T30" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U30" t="n">
-        <v>66.03859081153976</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,25 +29667,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="G31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I31" t="n">
         <v>148.6838485916426</v>
@@ -29694,49 +29694,49 @@
         <v>77.45106251930778</v>
       </c>
       <c r="K31" t="n">
-        <v>91.42399569050896</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>85.37239617474688</v>
       </c>
       <c r="N31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="R31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="32">
@@ -29779,10 +29779,10 @@
         <v>150.0440602784519</v>
       </c>
       <c r="M32" t="n">
+        <v>150.0440602784532</v>
+      </c>
+      <c r="N32" t="n">
         <v>150.0440602784519</v>
-      </c>
-      <c r="N32" t="n">
-        <v>150.0440602784531</v>
       </c>
       <c r="O32" t="n">
         <v>150.0440602784519</v>
@@ -29916,7 +29916,7 @@
         <v>150.0440602784519</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="G34" t="n">
         <v>150.0440602784519</v>
@@ -29931,13 +29931,13 @@
         <v>150.0440602784519</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="L34" t="n">
         <v>150.0440602784519</v>
       </c>
       <c r="M34" t="n">
-        <v>150.0440602784519</v>
+        <v>90.53251941791433</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>95.15553167343498</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>67.32062995745123</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>209.0034601861953</v>
+        <v>51.35837973079478</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>110.7727707148958</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30198,7 +30198,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>201.7182972944444</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
         <v>237.379489226118</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="39">
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>59.69701566165467</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
@@ -30359,7 +30359,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>63.93424779281153</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.50321856723127</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170863</v>
@@ -30435,13 +30435,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>56.9466048176856</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>172.0061221910899</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15486527700744</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>31.4005105289657</v>
+        <v>64.46499674412692</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30669,22 +30669,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.48400490279573</v>
+        <v>98.48400490279629</v>
       </c>
     </row>
     <row r="44">
@@ -30721,10 +30721,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>46.15486527700807</v>
       </c>
       <c r="L44" t="n">
-        <v>46.15486527700762</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>48.42779660290438</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>9.673715532939895</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
         <v>220.9000151151833</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>25.32039957363219</v>
       </c>
       <c r="G46" t="n">
         <v>167.7659706229939</v>
@@ -30918,7 +30918,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="X46" t="n">
-        <v>100.7993666658843</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R12" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J13" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R13" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K17" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603009</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P17" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882059</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32266,7 +32266,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I18" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018442</v>
@@ -32318,19 +32318,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M18" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068128</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q18" t="n">
         <v>34.25968340095294</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678408</v>
@@ -32391,25 +32391,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J19" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K19" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174709</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424315</v>
@@ -32418,13 +32418,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35416,10 +35416,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N11" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O11" t="n">
         <v>235.2190232985557</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K12" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1107667815514</v>
+        <v>89.90534098452441</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
@@ -35507,7 +35507,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340481</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>135.5890331999281</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.759288654776</v>
       </c>
       <c r="M13" t="n">
-        <v>191.5102481248444</v>
+        <v>206.5716200456482</v>
       </c>
       <c r="N13" t="n">
-        <v>78.5646455072272</v>
+        <v>210.28124653994</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377296</v>
+        <v>95.59325649761446</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851007</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526136</v>
+        <v>64.39597107526153</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K15" t="n">
-        <v>139.7936311020789</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478076</v>
+        <v>210.8096911174892</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.26553851340483</v>
       </c>
       <c r="K16" t="n">
-        <v>43.07659875981654</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>177.6979167339718</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N16" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526136</v>
+        <v>64.39597107526139</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N17" t="n">
         <v>297.438882017431</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>290.5606228478076</v>
+        <v>235.4200211814158</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O18" t="n">
-        <v>24.60426532046184</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206324</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293543</v>
@@ -36054,7 +36054,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501705</v>
       </c>
       <c r="P19" t="n">
         <v>24.49234305238787</v>
@@ -36133,10 +36133,10 @@
         <v>297.438882017431</v>
       </c>
       <c r="O20" t="n">
-        <v>235.2190232985556</v>
+        <v>235.2190232985557</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710483</v>
       </c>
       <c r="Q20" t="n">
         <v>44.17844238427579</v>
@@ -36200,25 +36200,25 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478076</v>
+        <v>210.8096911174892</v>
       </c>
       <c r="M21" t="n">
-        <v>259.8681564695856</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O21" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427476</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>365.9739823579188</v>
       </c>
       <c r="N24" t="n">
-        <v>365.9739823579175</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
@@ -36598,7 +36598,7 @@
         <v>317.907360533448</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182228</v>
       </c>
       <c r="M26" t="n">
         <v>457.2911585300419</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.6847277636259</v>
+        <v>31.68472776362607</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,22 +36747,22 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809468</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914423</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.70343009858009</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206323</v>
+        <v>141.4447744781189</v>
       </c>
       <c r="M28" t="n">
         <v>74.85501901293543</v>
       </c>
       <c r="N28" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O28" t="n">
         <v>56.38908990501704</v>
@@ -36771,7 +36771,7 @@
         <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100078</v>
+        <v>82.72343032100081</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191345</v>
       </c>
       <c r="K29" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334481</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M29" t="n">
-        <v>457.2911585300419</v>
+        <v>457.291158530042</v>
       </c>
       <c r="N29" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958831</v>
       </c>
       <c r="O29" t="n">
         <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494999</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627279</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362613</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239738</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520848</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>95.2964278577243</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L31" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293543</v>
+        <v>160.2274151876823</v>
       </c>
       <c r="N31" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501704</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>174.53640333084</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100078</v>
+        <v>82.72343032100086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>411.0980020182223</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300417</v>
+        <v>457.291158530043</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958841</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O32" t="n">
         <v>385.2630835770076</v>
@@ -37212,7 +37212,7 @@
         <v>3.610097631882752</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520678</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>72.59299775914414</v>
       </c>
       <c r="K34" t="n">
-        <v>3.872432167215333</v>
+        <v>153.9164924456672</v>
       </c>
       <c r="L34" t="n">
         <v>211.0867479005151</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913874</v>
+        <v>165.3875384308498</v>
       </c>
       <c r="N34" t="n">
         <v>78.5646455072272</v>
@@ -37242,7 +37242,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P34" t="n">
-        <v>119.6478747258228</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>139.7936311020791</v>
+        <v>139.7936311020786</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241749</v>
+        <v>365.9739823579186</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241749</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>139.7936311020791</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604392</v>
+        <v>29.76276805604381</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068237</v>
+        <v>202.6310656317723</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37798,13 +37798,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.33330766128323</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>57.29211258658282</v>
+        <v>57.29211258658327</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478076</v>
@@ -38017,10 +38017,10 @@
         <v>30.62494344068237</v>
       </c>
       <c r="K44" t="n">
-        <v>167.863300254996</v>
+        <v>214.0181655320041</v>
       </c>
       <c r="L44" t="n">
-        <v>307.208807016778</v>
+        <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
         <v>307.2470982515898</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>57.29211258658282</v>
+        <v>57.29211258658327</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478076</v>
